--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437838.0646389918</v>
+        <v>439542.8206532584</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5668630.558955722</v>
+        <v>5668630.558955723</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -747,13 +749,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>200.8531994405235</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1224,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1269,10 +1271,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1330,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1376,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F11" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
@@ -1388,10 +1390,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,22 +1451,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -1494,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>147.2379120664689</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>47.02492433367365</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1610,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,16 +1621,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>190.3453970742847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1698,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>32.94517566205834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1974,10 +1976,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>178.6958490491743</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,31 +2159,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>49.98213474053743</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2248,43 +2250,43 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,52 +2332,52 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
@@ -2397,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>71.44610599702095</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2448,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>98.22847700514936</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,10 +2636,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>20.32145357845319</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2737,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2752,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>22.0339917726842</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>34.82467754800014</v>
+        <v>142.0207091502683</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2883,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3029,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3047,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3123,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>89.66547645067541</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3208,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C35" t="n">
         <v>241.0142888776591</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>50.25707871510754</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,31 +3547,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>90.38893773807641</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,64 +3751,64 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>23.81301614990497</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>148.9090820440758</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3828,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>64.79342734170824</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4071,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>1.197928092376154</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4195,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4358,22 +4360,22 @@
         <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>527.5764290961142</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>284.1276524520142</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W2" t="n">
-        <v>40.6788758079141</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X2" t="n">
-        <v>40.6788758079141</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.6788758079141</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>592.9597988536757</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>418.5067695725487</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4410,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768601</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4452,7 +4454,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>761.1751358737438</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4507,31 +4509,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4647,10 +4649,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M6" t="n">
         <v>417.4543050195419</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4917,16 +4919,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="10">
@@ -4978,16 +4980,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C11" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D11" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E11" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5075,16 +5077,16 @@
         <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W11" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X11" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y11" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H12" t="n">
         <v>110.334904905842</v>
@@ -5124,46 +5126,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="13">
@@ -5221,7 +5223,7 @@
         <v>66.78106667958005</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S13" t="n">
         <v>19.28114311021272</v>
@@ -5258,22 +5260,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="D14" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E14" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F14" t="n">
-        <v>710.516763498309</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G14" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>223.6192102101089</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>762.5638632763679</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C15" t="n">
-        <v>588.1108339952409</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D15" t="n">
-        <v>439.1764243339896</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>279.9389693285341</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>133.4044113554191</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5361,16 +5363,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5379,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y15" t="n">
-        <v>930.7792002964359</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5549,16 +5551,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>508.9694238887622</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C18" t="n">
-        <v>508.9694238887622</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D18" t="n">
-        <v>508.9694238887622</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F18" t="n">
         <v>362.4348659156472</v>
@@ -5601,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5624,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>508.9694238887622</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="V18" t="n">
-        <v>508.9694238887622</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="W18" t="n">
-        <v>508.9694238887622</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X18" t="n">
-        <v>508.9694238887622</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y18" t="n">
-        <v>508.9694238887622</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="19">
@@ -5695,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E20" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C20" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="D20" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5785,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>552.3930418464681</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C21" t="n">
-        <v>377.9400125653411</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D21" t="n">
-        <v>229.0056029040899</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E21" t="n">
-        <v>69.76814789863437</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,7 +5840,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
         <v>613.2059550252818</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X21" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y21" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5932,28 +5934,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.6083788665362</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C24" t="n">
-        <v>546.1553495854092</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D24" t="n">
-        <v>397.220939924158</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E24" t="n">
-        <v>237.9834849187025</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F24" t="n">
-        <v>91.44892694558743</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6075,10 +6077,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>864.836471667051</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>636.61285340344</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X24" t="n">
-        <v>720.6083788665362</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y24" t="n">
-        <v>720.6083788665362</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="25">
@@ -6181,13 +6183,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>567.6182002269572</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>393.1651709458303</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>244.230761284579</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>244.230761284579</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>244.230761284579</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6336,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>846.5570557448675</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>603.1082791007675</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X27" t="n">
-        <v>395.2567788952347</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y27" t="n">
-        <v>187.4964801302808</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>852.019301208126</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>852.019301208126</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>852.019301208126</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>852.019301208126</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>852.019301208126</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6494,16 +6496,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
         <v>477.1596022224361</v>
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>360.2295980564601</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C30" t="n">
-        <v>360.2295980564601</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D30" t="n">
-        <v>325.0531560887832</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6552,13 +6554,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>360.2295980564601</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>360.2295980564601</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y30" t="n">
-        <v>360.2295980564601</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="31">
@@ -6643,7 +6645,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U32" t="n">
-        <v>559.1338160830064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V32" t="n">
-        <v>559.1338160830064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W32" t="n">
-        <v>315.6850394389064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>109.8523314442283</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>109.8523314442283</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>109.8523314442283</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>109.8523314442283</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>109.8523314442283</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>109.8523314442283</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>353.3011080883284</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W33" t="n">
-        <v>109.8523314442283</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X33" t="n">
-        <v>109.8523314442283</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y33" t="n">
-        <v>109.8523314442283</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -7026,10 +7028,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="37">
@@ -7120,19 +7122,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
         <v>829.5248650203655</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T41" t="n">
-        <v>738.7078125165641</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U41" t="n">
-        <v>738.7078125165641</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V41" t="n">
-        <v>738.7078125165641</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W41" t="n">
-        <v>738.7078125165641</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X41" t="n">
-        <v>738.7078125165641</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y41" t="n">
-        <v>495.259035872464</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>344.6327430815143</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C42" t="n">
-        <v>344.6327430815143</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D42" t="n">
-        <v>344.6327430815143</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E42" t="n">
-        <v>344.6327430815143</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F42" t="n">
-        <v>198.0981851083993</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
         <v>473.4149733950735</v>
@@ -7600,13 +7602,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7675,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>122.6530896684844</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V44" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W44" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X44" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.38115216564972</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C45" t="n">
-        <v>49.38115216564972</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D45" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,19 +7733,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7758,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="Y45" t="n">
-        <v>49.38115216564972</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>295.1552315763977</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M6" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,10 +8774,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9009,10 +9011,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>299.7328472056018</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9021,7 +9023,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9249,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>312.5030352242461</v>
@@ -9723,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -10200,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O30" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10674,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>233.2169876979182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>379.4685256062839</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,7 +22558,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>385.6922903709871</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22598,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22635,13 +22637,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>4.829496336780863</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,13 +22749,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>199.2611655291815</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23112,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23157,10 +23159,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23218,19 +23220,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23264,10 +23266,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F11" t="n">
-        <v>335.8613673013232</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
@@ -23276,10 +23278,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,22 +23339,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23382,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23498,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>121.8499558845326</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23507,16 +23509,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>20.13049249612121</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23586,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>172.737520115246</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23789,16 +23791,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23820,7 +23822,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23862,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>21.46887964564732</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>102.3410493332383</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23981,7 +23983,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24023,7 +24025,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>95.08707765284646</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24108,7 +24110,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24209,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,10 +24262,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
@@ -24285,19 +24287,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>65.89741116618968</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24336,13 +24338,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>101.9362516896722</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="26">
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,10 +24524,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24534,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>117.0220635847574</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>116.4754883813142</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24625,7 +24627,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24640,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044853</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>413.4932414420988</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24734,19 +24736,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24762,7 +24764,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>112.6203880166386</v>
+        <v>5.424356414370408</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24771,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24807,19 +24809,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24883,10 +24885,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24917,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24935,10 +24937,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>160.0089112227261</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -24971,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>317.3055321907214</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25011,7 +25013,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>22.56996778582105</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25044,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>140.004192713242</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25096,7 +25098,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
         <v>124.2586028933485</v>
@@ -25172,7 +25174,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25211,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25222,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>149.9076499797141</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25360,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25391,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>258.8520309793366</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.5300167065108</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25646,7 +25648,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>325.427952567508</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>17.62410160579151</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25716,19 +25718,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>72.5500898215024</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>324.7966126378724</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25959,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>82.43643527161383</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.5750571111013</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26083,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125029</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490233.5289125027</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125027</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="C2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="E2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="F2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="C2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="D2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="E2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>99696.4035187994</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.40351879936</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="I2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="M2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="J2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879939</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879937</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
+        <v>8547.111069342403</v>
+      </c>
+      <c r="D4" t="n">
         <v>8547.111069342402</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8547.111069342403</v>
       </c>
       <c r="E4" t="n">
         <v>8547.111069342402</v>
@@ -26430,28 +26432,28 @@
         <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="L4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
         <v>8547.111069342402</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37901.40784585245</v>
+        <v>-37901.40784585242</v>
       </c>
       <c r="C6" t="n">
-        <v>42868.02368569532</v>
+        <v>42868.02368569533</v>
       </c>
       <c r="D6" t="n">
-        <v>42868.02368569535</v>
+        <v>42868.02368569528</v>
       </c>
       <c r="E6" t="n">
-        <v>76495.62368569532</v>
+        <v>76495.62368569529</v>
       </c>
       <c r="F6" t="n">
+        <v>76495.6236856953</v>
+      </c>
+      <c r="G6" t="n">
         <v>76495.62368569533</v>
-      </c>
-      <c r="G6" t="n">
-        <v>76495.62368569529</v>
       </c>
       <c r="H6" t="n">
         <v>76495.62368569532</v>
       </c>
       <c r="I6" t="n">
+        <v>76495.6236856953</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13435.68108658904</v>
+      </c>
+      <c r="K6" t="n">
+        <v>76495.62368569532</v>
+      </c>
+      <c r="L6" t="n">
+        <v>76495.6236856953</v>
+      </c>
+      <c r="M6" t="n">
         <v>76495.62368569529</v>
       </c>
-      <c r="J6" t="n">
-        <v>13435.68108658907</v>
-      </c>
-      <c r="K6" t="n">
-        <v>76495.6236856953</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>76495.62368569533</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
+        <v>76495.62368569527</v>
+      </c>
+      <c r="P6" t="n">
         <v>76495.62368569532</v>
-      </c>
-      <c r="N6" t="n">
-        <v>76495.62368569535</v>
-      </c>
-      <c r="O6" t="n">
-        <v>76495.6236856953</v>
-      </c>
-      <c r="P6" t="n">
-        <v>76495.6236856953</v>
       </c>
     </row>
   </sheetData>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>161.1808241620674</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M6" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35182,10 +35184,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35492,10 +35494,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,10 +35731,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>161.1784674257276</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35741,7 +35743,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>169.9067907798016</v>
@@ -36443,13 +36445,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36838,7 +36840,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36920,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O30" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37394,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>43.28534947792182</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>91.0829537758999</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439542.8206532584</v>
+        <v>337290.5109663219</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514375</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5668630.558955723</v>
+        <v>5668630.558955722</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.26531605719669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>32.71813187762556</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>200.8531994405235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,67 +904,67 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1192,7 +1192,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
     </row>
     <row r="12">
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -1508,16 +1508,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>147.2379120664689</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>131.7659851933074</v>
       </c>
     </row>
     <row r="13">
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>81.94696239689884</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>240.2580556792261</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1888,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>123.6003327477366</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>56.17030901074575</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2089,61 +2089,61 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2165,25 +2165,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2323,64 +2323,64 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>98.22847700514936</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>20.32145357845319</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>22.0339917726842</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
     </row>
     <row r="30">
@@ -2876,19 +2876,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>142.0207091502683</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3037,22 +3037,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>50.46697834767978</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3164,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>116.325098768111</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>50.25707871510754</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,10 +3508,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3784,28 +3784,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>23.81301614990497</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>148.9090820440758</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3833,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>40.47627913313511</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>1.197928092376154</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>266.0282188019862</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>592.9597988536757</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="C3" t="n">
-        <v>418.5067695725487</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="D3" t="n">
-        <v>269.5723599112974</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="Y3" t="n">
-        <v>761.1751358737438</v>
+        <v>454.2350688147492</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4509,31 +4509,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4767,10 +4767,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>259.0600686093459</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C9" t="n">
-        <v>259.0600686093459</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D9" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>259.0600686093459</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>259.0600686093459</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>259.0600686093459</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>259.0600686093459</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="10">
@@ -4983,31 +4983,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5071,22 +5071,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U11" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V11" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W11" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X11" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y11" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5126,10 +5126,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N12" t="n">
         <v>473.4149733950735</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V12" t="n">
-        <v>110.334904905842</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W12" t="n">
-        <v>110.334904905842</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X12" t="n">
-        <v>110.334904905842</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="Y12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5220,16 +5220,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
         <v>19.28114311021272</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V14" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5363,16 +5363,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V15" t="n">
-        <v>862.8876260635219</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W15" t="n">
-        <v>862.8876260635219</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X15" t="n">
-        <v>862.8876260635219</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y15" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="16">
@@ -5454,25 +5454,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5603,10 +5603,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>362.4348659156472</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>362.4348659156472</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W18" t="n">
-        <v>362.4348659156472</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X18" t="n">
-        <v>362.4348659156472</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y18" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5785,19 +5785,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W21" t="n">
-        <v>689.4702815141908</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5934,28 +5934,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>158.0119685275972</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="C24" t="n">
-        <v>158.0119685275972</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D24" t="n">
-        <v>158.0119685275972</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E24" t="n">
-        <v>158.0119685275972</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6077,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>864.836471667051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>636.61285340344</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>401.4607451716973</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>158.0119685275972</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>158.0119685275972</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>158.0119685275972</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="25">
@@ -6177,19 +6177,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>567.6182002269572</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>393.1651709458303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>244.230761284579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>244.230761284579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>244.230761284579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6341,16 +6341,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>735.8335372470253</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>735.8335372470253</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>735.8335372470253</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>735.8335372470253</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W29" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6545,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6645,10 +6645,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>812.6742080953335</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U32" t="n">
-        <v>812.6742080953335</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V32" t="n">
-        <v>812.6742080953335</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W32" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6812,19 +6812,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>846.5570557448675</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>603.1082791007675</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>395.2567788952347</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
         <v>19.28114311021272</v>
@@ -6885,25 +6885,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -7019,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>638.7055555393347</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>638.7055555393347</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V36" t="n">
-        <v>638.7055555393347</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W36" t="n">
-        <v>395.2567788952347</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X36" t="n">
-        <v>395.2567788952347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="39">
@@ -7262,16 +7262,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7286,16 +7286,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
         <v>19.28114311021272</v>
@@ -7356,28 +7356,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7496,10 +7496,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
         <v>473.4149733950735</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7611,10 +7611,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>72.23626279480629</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C44" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D44" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E44" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H44" t="n">
         <v>31.35113235729608</v>
@@ -7675,25 +7675,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V44" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W44" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X44" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y44" t="n">
-        <v>315.6850394389064</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>343.4227147053767</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
         <v>20.03527576299844</v>
@@ -7733,16 +7733,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X45" t="n">
-        <v>719.3983504903987</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
-        <v>511.6380517254448</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,13 +8774,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9011,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9251,13 +9251,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11144,13 +11144,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11381,10 +11381,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11393,7 +11393,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379.4685256062839</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>193.2232502033493</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.829496336780863</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22731,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22749,13 +22749,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>199.2611655291815</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F5" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22837,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22865,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22962,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23041,7 +23041,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>199.2828334142263</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23080,7 +23080,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23105,7 +23105,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>117.6460565997561</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>102.3410493332382</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23223,7 +23223,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23232,7 +23232,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23266,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>329.5048015845142</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23311,13 +23311,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>315.8939308547783</v>
       </c>
     </row>
     <row r="12">
@@ -23357,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23396,16 +23396,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>85.56267508295639</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>73.91671058399695</v>
       </c>
     </row>
     <row r="13">
@@ -23460,19 +23460,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23500,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>121.8499558845326</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23576,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>150.8536247525264</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>166.6179900624853</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>102.3410493332383</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23977,16 +23977,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24025,13 +24025,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24053,25 +24053,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>126.3942969708654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>121.6254758352848</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24107,16 +24107,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>334.968030499315</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24253,22 +24253,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>20.33988403799381</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24338,16 +24338,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>101.9362516896722</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24493,22 +24493,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>358.5380445222895</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24536,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>117.0220635847574</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24581,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24627,7 +24627,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24642,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>155.2593996044853</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.4932414420988</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24736,19 +24736,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>333.812370168306</v>
       </c>
     </row>
     <row r="30">
@@ -24764,19 +24764,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>5.424356414370408</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24809,19 +24809,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24885,13 +24885,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24925,22 +24925,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>160.0089112227261</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25052,13 +25052,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>116.4754883813142</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.004192713242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25098,7 +25098,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>149.9076499797141</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,10 +25396,10 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25444,22 +25444,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>21.14182795086677</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25526,7 +25526,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25672,28 +25672,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>325.427952567508</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.62410160579151</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25721,16 +25721,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,16 +25757,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>324.7966126378724</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>249.0858643776907</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -26000,16 +26000,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>204.5750571111013</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490233.5289125029</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490233.5289125027</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="C2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="E2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="F2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="G2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="G2" t="n">
-        <v>99696.4035187994</v>
-      </c>
       <c r="H2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="J2" t="n">
         <v>99696.40351879934</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879945</v>
       </c>
       <c r="L2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="M2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="N2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="O2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>99696.4035187994</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879939</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
         <v>8547.111069342402</v>
@@ -26444,7 +26444,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
         <v>8547.111069342402</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37901.40784585242</v>
+        <v>-50119.41846589286</v>
       </c>
       <c r="C6" t="n">
-        <v>42868.02368569533</v>
+        <v>30650.01306565487</v>
       </c>
       <c r="D6" t="n">
-        <v>42868.02368569528</v>
+        <v>30650.01306565486</v>
       </c>
       <c r="E6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="F6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565488</v>
       </c>
       <c r="G6" t="n">
-        <v>76495.62368569533</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="H6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565481</v>
       </c>
       <c r="I6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="J6" t="n">
-        <v>13435.68108658904</v>
+        <v>1217.670466548574</v>
       </c>
       <c r="K6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565491</v>
       </c>
       <c r="L6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="M6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.61306565485</v>
       </c>
       <c r="N6" t="n">
-        <v>76495.62368569533</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="O6" t="n">
-        <v>76495.62368569527</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="P6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565486</v>
       </c>
     </row>
   </sheetData>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35257,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35494,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35655,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35731,19 +35731,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35971,13 +35971,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
       <c r="O36" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38101,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38113,7 +38113,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337290.5109663219</v>
+        <v>429292.35954942</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -788,13 +788,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>32.71813187762556</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>55.12433414733973</v>
       </c>
     </row>
     <row r="4">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>122.3972145812863</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>65.13060206523731</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>9.234466016111892</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>131.0193938670496</v>
       </c>
       <c r="D9" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1290,67 +1290,67 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.7659851933074</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="13">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>81.94696239689884</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>240.2580556792261</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1903,7 +1903,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>29.78216610882018</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>56.17030901074575</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,25 +2125,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>187.5621134477332</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2250,58 +2250,58 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>80.33470701582003</v>
+        <v>234.288905720311</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2362,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>11.19305615617957</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2696,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2933,13 +2933,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
@@ -3076,22 +3076,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3170,13 +3170,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>65.13060206523731</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3268,70 +3268,70 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>52.0628898883872</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,67 +3505,67 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>136.5980090815781</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,61 +3660,61 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3751,58 +3751,58 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S41" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T41" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U41" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U42" t="n">
-        <v>89.66547645067541</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3884,7 +3884,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3912,46 +3912,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3979,28 +3979,28 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>49.3111039422953</v>
+        <v>155.5825568932142</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4143,58 +4143,58 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>454.2350688147492</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="C3" t="n">
-        <v>454.2350688147492</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="D3" t="n">
-        <v>305.3006591534979</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E3" t="n">
         <v>305.3006591534979</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>454.2350688147492</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>454.2350688147492</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>454.2350688147492</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>454.2350688147492</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>454.2350688147492</v>
+        <v>807.2064804601484</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
         <v>19.28114311021272</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.7186438601369</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C5" t="n">
-        <v>241.7186438601369</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D5" t="n">
-        <v>241.7186438601369</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V5" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W5" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X5" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y5" t="n">
-        <v>485.167420504237</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>638.2370107872948</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4655,16 +4655,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>638.2370107872948</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>638.2370107872948</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>638.2370107872948</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>638.2370107872948</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>638.2370107872948</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
         <v>19.28114311021272</v>
@@ -4767,10 +4767,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.58726043968704</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C8" t="n">
-        <v>30.58726043968704</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D8" t="n">
-        <v>30.58726043968704</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E8" t="n">
-        <v>30.58726043968704</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F8" t="n">
-        <v>30.58726043968704</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>30.58726043968704</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>30.58726043968704</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>954.7294120600181</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>954.7294120600181</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T8" t="n">
-        <v>517.4848137278872</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U8" t="n">
-        <v>274.0360370837871</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V8" t="n">
-        <v>274.0360370837871</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W8" t="n">
-        <v>274.0360370837871</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X8" t="n">
-        <v>274.0360370837871</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y8" t="n">
-        <v>30.58726043968704</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.38115216564972</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="C9" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W9" t="n">
-        <v>257.2326523711826</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X9" t="n">
-        <v>49.38115216564972</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="Y9" t="n">
-        <v>49.38115216564972</v>
+        <v>152.3780978509273</v>
       </c>
     </row>
     <row r="10">
@@ -4998,16 +4998,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C11" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T11" t="n">
-        <v>577.2332497330343</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U11" t="n">
-        <v>577.2332497330343</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V11" t="n">
-        <v>577.2332497330343</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W11" t="n">
-        <v>577.2332497330343</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X11" t="n">
-        <v>577.2332497330343</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5147,22 +5147,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>360.2295980564601</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>360.2295980564601</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>152.3780978509273</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y12" t="n">
         <v>19.28114311021272</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
         <v>19.28114311021272</v>
@@ -5232,19 +5232,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
         <v>781.4136778972854</v>
@@ -5387,22 +5387,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>761.8705608694022</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U15" t="n">
-        <v>761.8705608694022</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V15" t="n">
-        <v>679.0958513775852</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W15" t="n">
-        <v>435.6470747334852</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X15" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5469,10 +5469,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>274.0360370837871</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C17" t="n">
-        <v>274.0360370837871</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D17" t="n">
-        <v>274.0360370837871</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E17" t="n">
-        <v>274.0360370837871</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5551,16 +5551,16 @@
         <v>274.0360370837871</v>
       </c>
       <c r="V17" t="n">
-        <v>274.0360370837871</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W17" t="n">
-        <v>274.0360370837871</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X17" t="n">
-        <v>274.0360370837871</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y17" t="n">
-        <v>274.0360370837871</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,10 +5603,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5630,16 +5630,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>679.0958513775852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
         <v>19.28114311021272</v>
@@ -5697,28 +5697,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V20" t="n">
-        <v>477.1596022224361</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>913.4938269565423</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>913.4938269565423</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V21" t="n">
-        <v>678.3417187247995</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5949,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.4273118130612</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C23" t="n">
-        <v>100.4273118130612</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D23" t="n">
-        <v>100.4273118130612</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E23" t="n">
-        <v>100.4273118130612</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F23" t="n">
-        <v>100.4273118130612</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>587.3248651012614</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U23" t="n">
-        <v>343.8760884571613</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V23" t="n">
-        <v>100.4273118130612</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W23" t="n">
-        <v>100.4273118130612</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X23" t="n">
-        <v>100.4273118130612</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y23" t="n">
-        <v>100.4273118130612</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6101,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>30.58726043968704</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>30.58726043968704</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6344,10 +6344,10 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6408,19 +6408,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6442,7 +6442,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6490,22 +6490,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
         <v>262.7299197543128</v>
@@ -6548,16 +6548,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6569,22 +6569,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V30" t="n">
-        <v>125.0774898247174</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W30" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
         <v>19.28114311021272</v>
@@ -6651,13 +6651,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
         <v>262.7299197543128</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>333.7844730889342</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>333.7844730889342</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6809,19 +6809,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
         <v>19.28114311021272</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
         <v>19.28114311021272</v>
@@ -6885,25 +6885,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C35" t="n">
+        <v>325.7766548071333</v>
+      </c>
+      <c r="D35" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7019,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>327.2640844659515</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>83.81530782185143</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
         <v>19.28114311021272</v>
@@ -7137,10 +7137,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>710.516763498309</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C38" t="n">
-        <v>467.067986854209</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D38" t="n">
-        <v>223.6192102101089</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W38" t="n">
-        <v>710.516763498309</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7268,7 +7268,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>826.0793685595472</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>826.0793685595472</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>597.8557502959362</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="40">
@@ -7362,22 +7362,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,19 +7517,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U42" t="n">
-        <v>497.8820279860555</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V42" t="n">
-        <v>262.7299197543128</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W42" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X42" t="n">
         <v>19.28114311021272</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7599,22 +7599,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7675,25 +7675,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>914.2479596093278</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V45" t="n">
-        <v>679.0958513775852</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W45" t="n">
-        <v>435.6470747334852</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X45" t="n">
-        <v>227.7955745279523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
         <v>19.28114311021272</v>
@@ -7842,16 +7842,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,10 +9017,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O15" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9251,13 +9251,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10196,19 +10196,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,13 +10439,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10916,10 +10916,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P39" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>349.0484638974528</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M45" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11393,7 +11393,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,7 +22600,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>183.9432522271564</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22676,13 +22676,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>193.2232502033493</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>150.5583616299646</v>
       </c>
     </row>
     <row r="4">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22716,7 +22716,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -22792,10 +22792,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>161.7172443298368</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>395.6829895855319</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22834,7 +22834,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22865,19 +22865,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22916,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>103.5441674996885</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>186.5643810956823</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22959,7 +22959,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23041,10 +23041,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>199.2828334142263</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.7562331984329127</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23077,7 +23077,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,10 +23102,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>41.68910512126615</v>
       </c>
       <c r="D9" t="n">
-        <v>117.6460565997561</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,19 +23150,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23238,7 +23238,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23269,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
@@ -23278,7 +23278,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>199.2828334142263</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>315.8939308547783</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23387,25 +23387,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.91671058399695</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="13">
@@ -23433,7 +23433,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23627,19 +23627,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>170.2754303037659</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>150.8536247525264</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>166.6179900624853</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23752,7 +23752,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>297.9700923613148</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23870,13 +23870,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>395.6829895855319</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,25 +24013,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>136.9555830739709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>121.6254758352848</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>18.21087175574425</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24220,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>334.968030499315</v>
+        <v>181.0138317948241</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.33988403799381</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24341,19 +24341,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24493,25 +24493,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>358.5380445222895</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>333.812370168306</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24809,10 +24809,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>170.2754303037659</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24891,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>278.8969609161378</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25049,7 +25049,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>186.5643810956823</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,7 +25171,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25210,16 +25210,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,22 +25235,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>120.6456090999285</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>141.8841621389552</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25408,7 +25408,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>318.2910467450428</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,25 +25435,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>35.08516202225971</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25675,22 +25675,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25757,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U42" t="n">
-        <v>136.2759056302994</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25867,28 +25867,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>249.0858643776907</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>176.6302781386795</v>
+        <v>70.3588251877606</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125027</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125027</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="D2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="E2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>99696.40351879936</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99696.40351879942</v>
       </c>
       <c r="G2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="J2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="K2" t="n">
         <v>99696.40351879934</v>
       </c>
-      <c r="K2" t="n">
-        <v>99696.40351879945</v>
-      </c>
       <c r="L2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="M2" t="n">
         <v>99696.40351879939</v>
@@ -26352,7 +26352,7 @@
         <v>99696.40351879937</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="P2" t="n">
         <v>99696.4035187994</v>
@@ -26426,7 +26426,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="F4" t="n">
         <v>8547.111069342402</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50119.41846589286</v>
+        <v>-39123.2089078565</v>
       </c>
       <c r="C6" t="n">
-        <v>30650.01306565487</v>
+        <v>41646.22262369125</v>
       </c>
       <c r="D6" t="n">
-        <v>30650.01306565486</v>
+        <v>41646.2226236913</v>
       </c>
       <c r="E6" t="n">
-        <v>64277.61306565483</v>
+        <v>75273.82262369127</v>
       </c>
       <c r="F6" t="n">
-        <v>64277.61306565488</v>
+        <v>75273.82262369125</v>
       </c>
       <c r="G6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="H6" t="n">
-        <v>64277.61306565481</v>
+        <v>75273.82262369127</v>
       </c>
       <c r="I6" t="n">
-        <v>64277.61306565483</v>
+        <v>75273.82262369125</v>
       </c>
       <c r="J6" t="n">
-        <v>1217.670466548574</v>
+        <v>12213.88002458502</v>
       </c>
       <c r="K6" t="n">
-        <v>64277.61306565491</v>
+        <v>75273.82262369123</v>
       </c>
       <c r="L6" t="n">
-        <v>64277.61306565483</v>
+        <v>75273.82262369129</v>
       </c>
       <c r="M6" t="n">
-        <v>64277.61306565485</v>
+        <v>75273.82262369127</v>
       </c>
       <c r="N6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="O6" t="n">
-        <v>64277.61306565483</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="P6" t="n">
-        <v>64277.61306565486</v>
+        <v>75273.82262369129</v>
       </c>
     </row>
   </sheetData>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35737,10 +35737,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O15" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35898,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35971,13 +35971,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37159,13 +37159,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37636,10 +37636,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M45" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38113,7 +38113,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
